--- a/biology/Botanique/Muflier_toujours_vert/Muflier_toujours_vert.xlsx
+++ b/biology/Botanique/Muflier_toujours_vert/Muflier_toujours_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhinum sempervirens
-Le Muflier toujours vert[1],[2], Antirrhinum sempervirens, est une plante herbacée, et vivace, de la famille des Scrofulariacées selon la classification classique ou des Plantaginacées selon la classification phylogénétique[2].
-La plante est endémique des Pyrénées[1]. 
+Le Muflier toujours vert Antirrhinum sempervirens, est une plante herbacée, et vivace, de la famille des Scrofulariacées selon la classification classique ou des Plantaginacées selon la classification phylogénétique.
+La plante est endémique des Pyrénées. 
 Synonyme : Orontium sempervirens (Lapeyr.) Pers.
 </t>
         </is>
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,9 +554,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace de 10 à 25 cm avec des fleurs blanchâtres et à souche ligneuse[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace de 10 à 25 cm avec des fleurs blanchâtres et à souche ligneuse.
 </t>
         </is>
       </c>
@@ -571,9 +587,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante sauvage habitant les rochers dans les Pyrénées centrales, françaises et espagnoles[1],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante sauvage habitant les rochers dans les Pyrénées centrales, françaises et espagnoles,.
 </t>
         </is>
       </c>
